--- a/Tables/LFS_respondents.xlsx
+++ b/Tables/LFS_respondents.xlsx
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>88155</v>
+        <v>87088</v>
       </c>
       <c r="D2">
-        <v>88183</v>
+        <v>87230</v>
       </c>
       <c r="E2">
-        <v>87482</v>
+        <v>86452</v>
       </c>
       <c r="F2">
-        <v>85490</v>
+        <v>84312</v>
       </c>
     </row>
     <row r="3">
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>18582</v>
+        <v>18418</v>
       </c>
       <c r="D3">
-        <v>20489</v>
+        <v>20323</v>
       </c>
       <c r="E3">
-        <v>17070</v>
+        <v>16931</v>
       </c>
       <c r="F3">
-        <v>16120</v>
+        <v>15986</v>
       </c>
     </row>
     <row r="4">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>14520</v>
+        <v>14370</v>
       </c>
       <c r="D4">
-        <v>14873</v>
+        <v>14755</v>
       </c>
       <c r="E4">
-        <v>13386</v>
+        <v>13306</v>
       </c>
       <c r="F4">
-        <v>13168</v>
+        <v>13075</v>
       </c>
     </row>
     <row r="5">
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>18489</v>
+        <v>18348</v>
       </c>
       <c r="D5">
-        <v>18200</v>
+        <v>18030</v>
       </c>
       <c r="E5">
-        <v>17733</v>
+        <v>17594</v>
       </c>
       <c r="F5">
-        <v>17714</v>
+        <v>17515</v>
       </c>
     </row>
     <row r="6">
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>18120</v>
+        <v>18018</v>
       </c>
       <c r="D6">
-        <v>17552</v>
+        <v>17456</v>
       </c>
       <c r="E6">
-        <v>15528</v>
+        <v>15436</v>
       </c>
       <c r="F6">
-        <v>16469</v>
+        <v>16389</v>
       </c>
     </row>
     <row r="7">
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>264696</v>
+        <v>263790</v>
       </c>
       <c r="D7">
-        <v>268085</v>
+        <v>267335</v>
       </c>
       <c r="E7">
-        <v>67948</v>
+        <v>67613</v>
       </c>
       <c r="F7">
-        <v>89991</v>
+        <v>89633</v>
       </c>
     </row>
     <row r="8">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>60491</v>
+        <v>60271</v>
       </c>
       <c r="D8">
-        <v>59906</v>
+        <v>59706</v>
       </c>
       <c r="E8">
-        <v>58515</v>
+        <v>58320</v>
       </c>
       <c r="F8">
-        <v>51587</v>
+        <v>51432</v>
       </c>
     </row>
     <row r="9">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>14610</v>
+        <v>14583</v>
       </c>
       <c r="D9">
-        <v>14787</v>
+        <v>14777</v>
       </c>
       <c r="E9">
-        <v>15253</v>
+        <v>15233</v>
       </c>
       <c r="F9">
-        <v>14237</v>
+        <v>14196</v>
       </c>
     </row>
     <row r="10">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="C10">
-        <v>79310</v>
+        <v>75677</v>
       </c>
       <c r="D10">
-        <v>75413</v>
+        <v>72284</v>
       </c>
       <c r="E10">
-        <v>65884</v>
+        <v>63191</v>
       </c>
       <c r="F10">
-        <v>8771</v>
+        <v>8458</v>
       </c>
     </row>
     <row r="11">
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="C11">
-        <v>39974</v>
+        <v>39808</v>
       </c>
       <c r="D11">
-        <v>41087</v>
+        <v>40924</v>
       </c>
       <c r="E11">
-        <v>38498</v>
+        <v>38349</v>
       </c>
       <c r="F11">
-        <v>37137</v>
+        <v>36973</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="C12">
-        <v>21981</v>
+        <v>21869</v>
       </c>
       <c r="D12">
-        <v>21610</v>
+        <v>21523</v>
       </c>
       <c r="E12">
-        <v>20597</v>
+        <v>20524</v>
       </c>
       <c r="F12">
-        <v>19101</v>
+        <v>18963</v>
       </c>
     </row>
     <row r="13">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C13">
-        <v>196992</v>
+        <v>196136</v>
       </c>
       <c r="D13">
-        <v>193047</v>
+        <v>192244</v>
       </c>
       <c r="E13">
-        <v>46255</v>
+        <v>46064</v>
       </c>
       <c r="F13">
-        <v>26453</v>
+        <v>26318</v>
       </c>
     </row>
     <row r="14">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="C14">
-        <v>13246</v>
+        <v>13025</v>
       </c>
       <c r="D14">
-        <v>12690</v>
+        <v>12466</v>
       </c>
       <c r="E14">
-        <v>12290</v>
+        <v>12130</v>
       </c>
       <c r="F14">
-        <v>13854</v>
+        <v>13584</v>
       </c>
     </row>
     <row r="15">
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="C15">
-        <v>88818</v>
+        <v>88558</v>
       </c>
       <c r="D15">
-        <v>85212</v>
+        <v>84975</v>
       </c>
       <c r="E15">
-        <v>81348</v>
+        <v>81119</v>
       </c>
       <c r="F15">
-        <v>97046</v>
+        <v>96687</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C16">
-        <v>61544</v>
+        <v>61124</v>
       </c>
       <c r="D16">
-        <v>64597</v>
+        <v>64212</v>
       </c>
       <c r="E16">
-        <v>54316</v>
+        <v>53907</v>
       </c>
       <c r="F16">
-        <v>9752</v>
+        <v>9616</v>
       </c>
     </row>
     <row r="17">
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="C17">
-        <v>203026</v>
+        <v>200155</v>
       </c>
       <c r="D17">
-        <v>201958</v>
+        <v>198974</v>
       </c>
       <c r="E17">
-        <v>187377</v>
+        <v>184745</v>
       </c>
       <c r="F17">
-        <v>182279</v>
+        <v>180124</v>
       </c>
     </row>
     <row r="18">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="C18">
-        <v>31011</v>
+        <v>30757</v>
       </c>
       <c r="D18">
-        <v>29581</v>
+        <v>29415</v>
       </c>
       <c r="E18">
-        <v>25922</v>
+        <v>25784</v>
       </c>
       <c r="F18">
-        <v>25274</v>
+        <v>25129</v>
       </c>
     </row>
     <row r="19">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="C19">
-        <v>12140</v>
+        <v>11977</v>
       </c>
       <c r="D19">
-        <v>14206</v>
+        <v>14003</v>
       </c>
       <c r="E19">
-        <v>8622</v>
+        <v>8479</v>
       </c>
       <c r="F19">
-        <v>10588</v>
+        <v>10332</v>
       </c>
     </row>
     <row r="20">
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="C20">
-        <v>7271</v>
+        <v>7217</v>
       </c>
       <c r="D20">
-        <v>4015</v>
+        <v>4000</v>
       </c>
       <c r="E20">
-        <v>4209</v>
+        <v>4179</v>
       </c>
       <c r="F20">
-        <v>4251</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="21">
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="C21">
-        <v>10088</v>
+        <v>10075</v>
       </c>
       <c r="D21">
-        <v>9283</v>
+        <v>9265</v>
       </c>
       <c r="E21">
-        <v>9567</v>
+        <v>9554</v>
       </c>
       <c r="F21">
-        <v>5301</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="22">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C22">
-        <v>48128</v>
+        <v>47998</v>
       </c>
       <c r="D22">
-        <v>43846</v>
+        <v>43715</v>
       </c>
       <c r="E22">
-        <v>42838</v>
+        <v>42713</v>
       </c>
       <c r="F22">
-        <v>106750</v>
+        <v>106247</v>
       </c>
     </row>
     <row r="23">
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="C23">
-        <v>110071</v>
+        <v>107500</v>
       </c>
       <c r="D23">
-        <v>99731</v>
+        <v>97644</v>
       </c>
       <c r="E23">
-        <v>111409</v>
+        <v>108919</v>
       </c>
       <c r="F23">
-        <v>113662</v>
+        <v>112338</v>
       </c>
     </row>
     <row r="24">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C24">
-        <v>68737</v>
+        <v>68374</v>
       </c>
       <c r="D24">
-        <v>65767</v>
+        <v>65476</v>
       </c>
       <c r="E24">
-        <v>52744</v>
+        <v>52539</v>
       </c>
       <c r="F24">
-        <v>12087</v>
+        <v>11967</v>
       </c>
     </row>
     <row r="25">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="C25">
-        <v>102299</v>
+        <v>92779</v>
       </c>
       <c r="D25">
-        <v>99132</v>
+        <v>90320</v>
       </c>
       <c r="E25">
-        <v>92982</v>
+        <v>84988</v>
       </c>
       <c r="F25">
-        <v>84495</v>
+        <v>81503</v>
       </c>
     </row>
     <row r="26">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C26">
-        <v>108349</v>
+        <v>108176</v>
       </c>
       <c r="D26">
-        <v>70904</v>
+        <v>70778</v>
       </c>
       <c r="E26">
-        <v>80909</v>
+        <v>80712</v>
       </c>
       <c r="F26">
-        <v>62323</v>
+        <v>62093</v>
       </c>
     </row>
     <row r="27">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C27">
-        <v>29776</v>
+        <v>28818</v>
       </c>
       <c r="D27">
-        <v>27907</v>
+        <v>27365</v>
       </c>
       <c r="E27">
-        <v>27287</v>
+        <v>26759</v>
       </c>
       <c r="F27">
-        <v>33489</v>
+        <v>32838</v>
       </c>
     </row>
     <row r="28">
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="C28">
-        <v>37671</v>
+        <v>37647</v>
       </c>
       <c r="D28">
-        <v>37237</v>
+        <v>37201</v>
       </c>
       <c r="E28">
-        <v>35717</v>
+        <v>35699</v>
       </c>
       <c r="F28">
-        <v>34221</v>
+        <v>34183</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/LFS_respondents.xlsx
+++ b/Tables/LFS_respondents.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,11 @@
           <t>2021</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -412,6 +417,9 @@
       <c r="F2">
         <v>84312</v>
       </c>
+      <c r="G2">
+        <v>86005</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -436,6 +444,9 @@
       <c r="F3">
         <v>15986</v>
       </c>
+      <c r="G3">
+        <v>16055</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +471,9 @@
       <c r="F4">
         <v>13075</v>
       </c>
+      <c r="G4">
+        <v>13604</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -484,6 +498,9 @@
       <c r="F5">
         <v>17515</v>
       </c>
+      <c r="G5">
+        <v>17889</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -493,7 +510,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C6">
@@ -508,6 +525,9 @@
       <c r="F6">
         <v>16389</v>
       </c>
+      <c r="G6">
+        <v>16684</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -530,7 +550,10 @@
         <v>67613</v>
       </c>
       <c r="F7">
-        <v>89633</v>
+        <v>92873</v>
+      </c>
+      <c r="G7">
+        <v>99443</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +577,10 @@
         <v>58320</v>
       </c>
       <c r="F8">
-        <v>51432</v>
+        <v>51435</v>
+      </c>
+      <c r="G8">
+        <v>43404</v>
       </c>
     </row>
     <row r="9">
@@ -580,6 +606,9 @@
       <c r="F9">
         <v>14196</v>
       </c>
+      <c r="G9">
+        <v>12720</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -604,6 +633,9 @@
       <c r="F10">
         <v>8458</v>
       </c>
+      <c r="G10">
+        <v>9908</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -628,6 +660,9 @@
       <c r="F11">
         <v>36973</v>
       </c>
+      <c r="G11">
+        <v>33892</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -652,6 +687,9 @@
       <c r="F12">
         <v>18963</v>
       </c>
+      <c r="G12">
+        <v>17106</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -676,6 +714,9 @@
       <c r="F13">
         <v>26318</v>
       </c>
+      <c r="G13">
+        <v>27567</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -700,6 +741,9 @@
       <c r="F14">
         <v>13584</v>
       </c>
+      <c r="G14">
+        <v>14816</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -724,6 +768,9 @@
       <c r="F15">
         <v>96687</v>
       </c>
+      <c r="G15">
+        <v>96040</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -748,6 +795,9 @@
       <c r="F16">
         <v>9616</v>
       </c>
+      <c r="G16">
+        <v>9777</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -772,6 +822,9 @@
       <c r="F17">
         <v>180124</v>
       </c>
+      <c r="G17">
+        <v>183119</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -796,6 +849,9 @@
       <c r="F18">
         <v>25129</v>
       </c>
+      <c r="G18">
+        <v>26112</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -820,6 +876,9 @@
       <c r="F19">
         <v>10332</v>
       </c>
+      <c r="G19">
+        <v>8510</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -844,6 +903,9 @@
       <c r="F20">
         <v>4235</v>
       </c>
+      <c r="G20">
+        <v>4257</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -868,6 +930,9 @@
       <c r="F21">
         <v>5293</v>
       </c>
+      <c r="G21">
+        <v>4980</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -890,7 +955,10 @@
         <v>42713</v>
       </c>
       <c r="F22">
-        <v>106247</v>
+        <v>104847</v>
+      </c>
+      <c r="G22">
+        <v>119757</v>
       </c>
     </row>
     <row r="23">
@@ -916,6 +984,9 @@
       <c r="F23">
         <v>112338</v>
       </c>
+      <c r="G23">
+        <v>110410</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -940,6 +1011,9 @@
       <c r="F24">
         <v>11967</v>
       </c>
+      <c r="G24">
+        <v>14436</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -964,6 +1038,9 @@
       <c r="F25">
         <v>81503</v>
       </c>
+      <c r="G25">
+        <v>82240</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -988,6 +1065,9 @@
       <c r="F26">
         <v>62093</v>
       </c>
+      <c r="G26">
+        <v>68666</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1012,6 +1092,9 @@
       <c r="F27">
         <v>32838</v>
       </c>
+      <c r="G27">
+        <v>30721</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1035,6 +1118,9 @@
       </c>
       <c r="F28">
         <v>34183</v>
+      </c>
+      <c r="G28">
+        <v>34441</v>
       </c>
     </row>
   </sheetData>
